--- a/2_Formulas_and_Functions/4_Math_Functions/1_SUM.xlsx
+++ b/2_Formulas_and_Functions/4_Math_Functions/1_SUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\4_Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D483BB-3CC1-4FD7-A95F-360C9D7CF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEA83E-B4F5-4FB8-8830-53A65DCC2CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="SUMIF" sheetId="3" r:id="rId3"/>
     <sheet name="SUMIFS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="31">
   <si>
     <t>Data Analyst</t>
   </si>
@@ -112,16 +123,27 @@
   </si>
   <si>
     <t>JP009</t>
+  </si>
+  <si>
+    <t>Overall Salary Expenses</t>
+  </si>
+  <si>
+    <t>Total Salary for Job Postings in New York</t>
+  </si>
+  <si>
+    <t>Total Salary for Senior-level Positions in San Francisco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +170,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,26 +201,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,352 +506,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>120000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>90000</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>115000</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>125000</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>130000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>95000</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>110000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>118000</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>135000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -822,39 +736,39 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
     <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
@@ -863,352 +777,224 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>120000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>90000</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="7">
+        <f>SUM(E2:E10)</f>
+        <v>1038000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>115000</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>125000</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>130000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>95000</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>110000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>118000</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>135000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1220,40 +1006,40 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
@@ -1262,352 +1048,224 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>120000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>90000</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="8">
+        <f>SUMIF(D2:D10, "New York", E2:E10)</f>
+        <v>475000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>115000</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>125000</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>130000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>95000</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>110000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>118000</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>135000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,40 +1276,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
     <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
@@ -1660,352 +1318,224 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>120000</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>90000</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="8">
+        <f>SUMIFS(E2:E10, D2:D10, "San Francisco", F2:F10, "Senior")</f>
+        <v>260000</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>115000</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>125000</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>130000</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>95000</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>110000</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>118000</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>135000</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2_Formulas_and_Functions/4_Math_Functions/1_SUM.xlsx
+++ b/2_Formulas_and_Functions/4_Math_Functions/1_SUM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\4_Math_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBEA83E-B4F5-4FB8-8830-53A65DCC2CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE7C26-B787-4C43-8883-91646DA3DCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -220,11 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1066,7 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>SUMIF(D2:D10, "New York", E2:E10)</f>
         <v>475000</v>
       </c>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>SUMIFS(E2:E10, D2:D10, "San Francisco", F2:F10, "Senior")</f>
         <v>260000</v>
       </c>
